--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_CAT_TELEFONOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_CAT_TELEFONOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>ID_TELEFONOS</t>
   </si>
@@ -36,6 +36,27 @@
   </si>
   <si>
     <t>FAX</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -405,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,6 +452,72 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_CAT_TELEFONOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_CAT_TELEFONOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>ID_TELEFONOS</t>
   </si>
@@ -57,6 +57,60 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>767898654</t>
+  </si>
+  <si>
+    <t>546765457</t>
+  </si>
+  <si>
+    <t>566765456</t>
+  </si>
+  <si>
+    <t>557678765</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>123457893</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>124567893</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
   </si>
 </sst>
 </file>
@@ -426,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,6 +572,153 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_CAT_TELEFONOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_CAT_TELEFONOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>ID_TELEFONOS</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,6 +722,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_CAT_TELEFONOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_CAT_TELEFONOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>ID_TELEFONOS</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>5512345678</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
   </si>
 </sst>
 </file>
@@ -483,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -694,7 +706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -708,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -722,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -731,6 +743,51 @@
       </c>
       <c r="D20" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_CAT_TELEFONOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_CAT_TELEFONOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ID_TELEFONOS</t>
   </si>
@@ -42,90 +42,6 @@
   </si>
   <si>
     <t>123456789</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>767898654</t>
-  </si>
-  <si>
-    <t>546765457</t>
-  </si>
-  <si>
-    <t>566765456</t>
-  </si>
-  <si>
-    <t>557678765</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>123457893</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>124567893</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>5512345678</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>1014</t>
   </si>
 </sst>
 </file>
@@ -495,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,264 +448,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
